--- a/biology/Zoologie/Dorippe/Dorippe.xlsx
+++ b/biology/Zoologie/Dorippe/Dorippe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dorippe est un genre de crabes de la famille des Dorippidae. 
 Ces crabes sont connus pour se protéger en portant sur leur dos des animaux dangereux, comme des oursins, des anémones ou des méduses benthiques. En Asie, ces crabes, sur la carapace desquelles on distingue un visage humain, sont très recherchés car, selon la légende, ils contiennent l'âme de guerriers défunts. 
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (16 février 2016)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (16 février 2016) :
 Dorippe frascone (Herbst, 1785) -- crabe à oursins
 Dorippe glabra Manning, 1993
 Dorippe irrorata Manning &amp; Holthuis, 1986
